--- a/public/ringkasan.xlsx
+++ b/public/ringkasan.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="1" r:id="rId4"/>
-    <sheet name="Kont" sheetId="2" r:id="rId5"/>
-    <sheet name="TrAkan" sheetId="3" r:id="rId6"/>
+    <sheet name="konT" sheetId="2" r:id="rId5"/>
+    <sheet name="TRAKan" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>PEMASUKAN HARIAN BULAN JANUARY 2024</t>
   </si>
@@ -67,10 +67,10 @@
     <t>T O T A L</t>
   </si>
   <si>
-    <t>Kont</t>
-  </si>
-  <si>
-    <t>TrAkan</t>
+    <t>konT</t>
+  </si>
+  <si>
+    <t>TRAKan</t>
   </si>
   <si>
     <t>PENGELUARAN HARIAN BULAN JANUARY 2024</t>
@@ -106,46 +106,37 @@
     <t>-</t>
   </si>
   <si>
-    <t>Yanto</t>
-  </si>
-  <si>
-    <t>01 Juli 2024</t>
+    <t>UDIN</t>
+  </si>
+  <si>
+    <t>07 Juli 2024</t>
   </si>
   <si>
     <t>k2</t>
   </si>
   <si>
-    <t>Rudy</t>
+    <t>Yana</t>
   </si>
   <si>
     <t>02 Februari 2024</t>
   </si>
   <si>
-    <t>Item Pengeluaran</t>
-  </si>
-  <si>
-    <t>k1, k2</t>
-  </si>
-  <si>
-    <t>Gaji</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
+    <t>Tatang</t>
+  </si>
+  <si>
     <t>03 Maret 2024</t>
   </si>
   <si>
     <t>p2</t>
   </si>
   <si>
-    <t>Vina</t>
+    <t>Ridwan</t>
   </si>
   <si>
     <t>04 April 2024</t>
-  </si>
-  <si>
-    <t>p1, p2</t>
   </si>
 </sst>
 </file>
@@ -235,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -248,9 +239,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,56 +608,56 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <f>IF(Kont!E6&gt;500,Kont!E6,0)</f>
+        <f>IF(konT!E6&gt;500,konT!E6,0)</f>
         <v>100000</v>
       </c>
       <c r="E3" s="3">
-        <f>IF(Kont!F6&gt;500,Kont!F6,0)</f>
+        <f>IF(konT!F6&gt;500,konT!F6,0)</f>
         <v>200000</v>
       </c>
       <c r="F3" s="3">
-        <f>IF(Kont!G6&gt;500,Kont!G6,0)</f>
+        <f>IF(konT!G6&gt;500,konT!G6,0)</f>
         <v>200000</v>
       </c>
       <c r="G3" s="3">
-        <f>IF(Kont!H6&gt;500,Kont!H6,0)</f>
+        <f>IF(konT!H6&gt;500,konT!H6,0)</f>
         <v>200000</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(Kont!I6&gt;500,Kont!I6,0)</f>
+        <f>IF(konT!I6&gt;500,konT!I6,0)</f>
         <v>200000</v>
       </c>
       <c r="I3" s="3">
-        <f>IF(Kont!J6&gt;500,Kont!J6,0)</f>
-        <v>200000</v>
+        <f>IF(konT!J6&gt;500,konT!J6,0)</f>
+        <v>100000</v>
       </c>
       <c r="J3" s="3">
-        <f>IF(Kont!K6&gt;500,Kont!K6,0)</f>
-        <v>200000</v>
+        <f>IF(konT!K6&gt;500,konT!K6,0)</f>
+        <v>100000</v>
       </c>
       <c r="K3" s="3">
-        <f>IF(Kont!L6&gt;500,Kont!L6,0)</f>
-        <v>200000</v>
+        <f>IF(konT!L6&gt;500,konT!L6,0)</f>
+        <v>100000</v>
       </c>
       <c r="L3" s="3">
-        <f>IF(Kont!M6&gt;500,Kont!M6,0)</f>
+        <f>IF(konT!M6&gt;500,konT!M6,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f>IF(Kont!N6&gt;500,Kont!N6,0)</f>
+        <f>IF(konT!N6&gt;500,konT!N6,0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f>IF(Kont!O6&gt;500,Kont!O6,0)</f>
+        <f>IF(konT!O6&gt;500,konT!O6,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <f>IF(Kont!P6&gt;500,Kont!P6,0)</f>
+        <f>IF(konT!P6&gt;500,konT!P6,0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f>Kont!Q6</f>
-        <v>1500000</v>
+        <f>konT!Q6</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -678,56 +666,56 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <f>IF(TrAkan!E5&gt;500,TrAkan!E5,0)</f>
+        <f>IF(TRAKan!E5&gt;500,TRAKan!E5,0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <f>IF(TrAkan!F5&gt;500,TrAkan!F5,0)</f>
+        <f>IF(TRAKan!F5&gt;500,TRAKan!F5,0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>IF(TrAkan!G5&gt;500,TrAkan!G5,0)</f>
+        <f>IF(TRAKan!G5&gt;500,TRAKan!G5,0)</f>
         <v>100000</v>
       </c>
       <c r="G4" s="3">
-        <f>IF(TrAkan!H5&gt;500,TrAkan!H5,0)</f>
+        <f>IF(TRAKan!H5&gt;500,TRAKan!H5,0)</f>
         <v>200000</v>
       </c>
       <c r="H4" s="3">
-        <f>IF(TrAkan!I5&gt;500,TrAkan!I5,0)</f>
-        <v>0</v>
+        <f>IF(TRAKan!I5&gt;500,TRAKan!I5,0)</f>
+        <v>200000</v>
       </c>
       <c r="I4" s="3">
-        <f>IF(TrAkan!J5&gt;500,TrAkan!J5,0)</f>
+        <f>IF(TRAKan!J5&gt;500,TRAKan!J5,0)</f>
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f>IF(TrAkan!K5&gt;500,TrAkan!K5,0)</f>
+        <f>IF(TRAKan!K5&gt;500,TRAKan!K5,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>IF(TrAkan!L5&gt;500,TrAkan!L5,0)</f>
+        <f>IF(TRAKan!L5&gt;500,TRAKan!L5,0)</f>
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <f>IF(TrAkan!M5&gt;500,TrAkan!M5,0)</f>
+        <f>IF(TRAKan!M5&gt;500,TRAKan!M5,0)</f>
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <f>IF(TrAkan!N5&gt;500,TrAkan!N5,0)</f>
+        <f>IF(TRAKan!N5&gt;500,TRAKan!N5,0)</f>
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f>IF(TrAkan!O5&gt;500,TrAkan!O5,0)</f>
+        <f>IF(TRAKan!O5&gt;500,TRAKan!O5,0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <f>IF(TrAkan!P5&gt;500,TrAkan!P5,0)</f>
+        <f>IF(TRAKan!P5&gt;500,TRAKan!P5,0)</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f>TrAkan!Q5</f>
-        <v>300000</v>
+        <f>TRAKan!Q5</f>
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -753,19 +741,19 @@
       </c>
       <c r="H5" s="4">
         <f>SUM(H3:H4)</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I3:I4)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J3:J4)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="K5" s="4">
         <f>SUM(K3:K4)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="L5" s="4">
         <f>SUM(L3:L4)</f>
@@ -785,7 +773,7 @@
       </c>
       <c r="P5" s="4">
         <f>SUM(P3:P4)</f>
-        <v>1800000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -850,56 +838,56 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <f>Kont!E12</f>
-        <v>0</v>
+        <f>konT!E6</f>
+        <v>100000</v>
       </c>
       <c r="E9" s="3">
-        <f>Kont!F12</f>
-        <v>0</v>
+        <f>konT!F6</f>
+        <v>200000</v>
       </c>
       <c r="F9" s="3">
-        <f>Kont!G12</f>
-        <v>0</v>
+        <f>konT!G6</f>
+        <v>200000</v>
       </c>
       <c r="G9" s="3">
-        <f>Kont!H12</f>
-        <v>0</v>
+        <f>konT!H6</f>
+        <v>200000</v>
       </c>
       <c r="H9" s="3">
-        <f>Kont!I12</f>
-        <v>0</v>
+        <f>konT!I6</f>
+        <v>200000</v>
       </c>
       <c r="I9" s="3">
-        <f>Kont!J12</f>
-        <v>0</v>
+        <f>konT!J6</f>
+        <v>100000</v>
       </c>
       <c r="J9" s="3">
-        <f>Kont!K12</f>
-        <v>0</v>
+        <f>konT!K6</f>
+        <v>100000</v>
       </c>
       <c r="K9" s="3">
-        <f>Kont!L12</f>
-        <v>0</v>
+        <f>konT!L6</f>
+        <v>100000</v>
       </c>
       <c r="L9" s="3">
-        <f>Kont!M12</f>
+        <f>konT!M6</f>
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <f>Kont!N12</f>
+        <f>konT!N6</f>
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>Kont!O12</f>
+        <f>konT!O6</f>
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <f>Kont!P12</f>
+        <f>konT!P6</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>Kont!Q12</f>
-        <v>0</v>
+        <f>konT!Q6</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -908,55 +896,55 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f>TrAkan!E11</f>
+        <f>TRAKan!E6</f>
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f>TrAkan!F11</f>
+        <f>TRAKan!F6</f>
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f>TrAkan!G11</f>
+        <f>TRAKan!G6</f>
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>TrAkan!H11</f>
+        <f>TRAKan!H6</f>
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f>TrAkan!I11</f>
+        <f>TRAKan!I6</f>
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <f>TrAkan!J11</f>
+        <f>TRAKan!J6</f>
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <f>TrAkan!K11</f>
+        <f>TRAKan!K6</f>
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f>TrAkan!L11</f>
+        <f>TRAKan!L6</f>
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <f>TrAkan!M11</f>
+        <f>TRAKan!M6</f>
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <f>TrAkan!N11</f>
+        <f>TRAKan!N6</f>
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f>TrAkan!O11</f>
+        <f>TRAKan!O6</f>
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <f>TrAkan!P11</f>
+        <f>TRAKan!P6</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>TrAkan!Q11</f>
+        <f>TRAKan!Q6</f>
         <v>0</v>
       </c>
     </row>
@@ -967,35 +955,35 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <f>SUM(D9:D10)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E9:E10)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F9:F10)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G11" s="4">
         <f>SUM(G9:G10)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H9:H10)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I11" s="4">
         <f>SUM(I9:I10)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(J9:J10)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K11" s="4">
         <f>SUM(K9:K10)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(L9:L10)</f>
@@ -1015,7 +1003,7 @@
       </c>
       <c r="P11" s="4">
         <f>SUM(P9:P10)</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1081,35 +1069,35 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <f>D3-D9</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f>E3-E9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <f>F3-F9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <f>G3-G9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f>H3-H9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <f>I3-I9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <f>J3-J9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <f>K3-K9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <f>L3-L9</f>
@@ -1129,7 +1117,7 @@
       </c>
       <c r="P15" s="2">
         <f>SUM(D15:O15)</f>
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1155,7 +1143,7 @@
       </c>
       <c r="H16" s="3">
         <f>H4-H10</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I16" s="3">
         <f>I4-I10</f>
@@ -1187,7 +1175,7 @@
       </c>
       <c r="P16" s="2">
         <f>SUM(D16:O16)</f>
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1197,19 +1185,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4">
         <f>SUM(D15:D16)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4">
         <f>SUM(E15:E16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(F15:F16)</f>
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="G17" s="4">
         <f>SUM(G15:G16)</f>
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="H17" s="4">
         <f>SUM(H15:H16)</f>
@@ -1217,15 +1205,15 @@
       </c>
       <c r="I17" s="4">
         <f>SUM(I15:I16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f>SUM(J15:J16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <f>SUM(K15:K16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
         <f>SUM(L15:L16)</f>
@@ -1245,7 +1233,7 @@
       </c>
       <c r="P17" s="4">
         <f>SUM(P15:P16)</f>
-        <v>1800000</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,14 +1365,14 @@
       <c r="I3" s="3">
         <v>100000</v>
       </c>
-      <c r="J3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L3" s="3">
-        <v>100000</v>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>28</v>
@@ -1400,7 +1388,7 @@
       </c>
       <c r="Q3" s="2">
         <f>SUM(E3:P3)</f>
-        <v>800000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="17">
@@ -1431,14 +1419,14 @@
       <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
+      <c r="J4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>100000</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -1454,7 +1442,7 @@
       </c>
       <c r="Q4" s="2">
         <f>SUM(E4:P4)</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="17">
@@ -1485,14 +1473,14 @@
       <c r="I5" s="3">
         <v>100000</v>
       </c>
-      <c r="J5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>100000</v>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -1508,7 +1496,7 @@
       </c>
       <c r="Q5" s="2">
         <f>SUM(E5:P5)</f>
-        <v>700000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1540,15 +1528,15 @@
       </c>
       <c r="J6" s="4">
         <f>SUM(J3:J5)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="K6" s="4">
         <f>SUM(K3:K5)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="4">
         <f>SUM(L3:L5)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(M3:M5)</f>
@@ -1568,181 +1556,13 @@
       </c>
       <c r="Q6" s="4">
         <f>SUM(Q3:Q5)</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="20">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>SUM(E11:P11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <f>SUM(E11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f>SUM(F11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM(G11:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM(H11:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f>SUM(I11:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f>SUM(J11:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f>SUM(K11:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>SUM(L11:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>SUM(M11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM(N11:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f>SUM(O11:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>SUM(P11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>SUM(Q11:Q11)</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,10 +1584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,13 +1658,13 @@
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="17">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3">
         <v>100000</v>
@@ -1861,8 +1681,8 @@
       <c r="H3" s="3">
         <v>100000</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
+      <c r="I3" s="3">
+        <v>100000</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -1887,19 +1707,19 @@
       </c>
       <c r="Q3" s="2">
         <f>SUM(E3:P3)</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="17">
       <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="3">
         <v>100000</v>
       </c>
@@ -1915,8 +1735,8 @@
       <c r="H4" s="3">
         <v>100000</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
+      <c r="I4" s="3">
+        <v>100000</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>28</v>
@@ -1941,7 +1761,7 @@
       </c>
       <c r="Q4" s="2">
         <f>SUM(E4:P4)</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1969,7 +1789,7 @@
       </c>
       <c r="I5" s="4">
         <f>SUM(I3:I4)</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J3:J4)</f>
@@ -2001,181 +1821,13 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="20">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>SUM(E10:P10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <f>SUM(E10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f>SUM(H10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>SUM(I10:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f>SUM(J10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM(K10:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>SUM(L10:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>SUM(M10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM(N10:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <f>SUM(O10:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>SUM(P10:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM(Q10:Q10)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/ringkasan.xlsx
+++ b/public/ringkasan.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>PEMASUKAN HARIAN BULAN JANUARY 2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>PEMASUKAN HARIAN BULAN AUGUST 2024</t>
   </si>
   <si>
     <t>Kontrakan</t>
@@ -28,40 +28,31 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>FEB</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>APR</t>
-  </si>
-  <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>AGU</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>OKT</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>DES</t>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>T O T A L</t>
@@ -73,10 +64,10 @@
     <t>TRAKan</t>
   </si>
   <si>
-    <t>PENGELUARAN HARIAN BULAN JANUARY 2024</t>
-  </si>
-  <si>
-    <t>PROFIT HARIAN BULAN JANUARY 2024</t>
+    <t>PENGELUARAN HARIAN BULAN AUGUST 2024</t>
+  </si>
+  <si>
+    <t>PROFIT HARIAN BULAN AUGUST 2024</t>
   </si>
   <si>
     <t>Kamar</t>
@@ -539,10 +530,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,12 +541,12 @@
     <col min="1" max="1" width="1" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customHeight="1" ht="20">
+    <row r="1" spans="1:35" customHeight="1" ht="20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,47 +580,104 @@
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2">
         <v>15</v>
       </c>
+      <c r="S2" s="2">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2">
+        <v>18</v>
+      </c>
+      <c r="V2" s="2">
+        <v>19</v>
+      </c>
+      <c r="W2" s="2">
+        <v>20</v>
+      </c>
+      <c r="X2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:35">
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
         <f>IF(konT!E6&gt;500,konT!E6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f>IF(konT!F6&gt;500,konT!F6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>IF(konT!G6&gt;500,konT!G6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f>IF(konT!H6&gt;500,konT!H6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>IF(konT!I6&gt;500,konT!I6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <f>IF(konT!J6&gt;500,konT!J6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(konT!K6&gt;500,konT!K6,0)</f>
@@ -637,7 +685,7 @@
       </c>
       <c r="K3" s="3">
         <f>IF(konT!L6&gt;500,konT!L6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
         <f>IF(konT!M6&gt;500,konT!M6,0)</f>
@@ -655,14 +703,90 @@
         <f>IF(konT!P6&gt;500,konT!P6,0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="2">
-        <f>konT!Q6</f>
-        <v>1200000</v>
+      <c r="P3" s="3">
+        <f>IF(konT!Q6&gt;500,konT!Q6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>IF(konT!R6&gt;500,konT!R6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f>IF(konT!S6&gt;500,konT!S6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f>IF(konT!T6&gt;500,konT!T6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <f>IF(konT!U6&gt;500,konT!U6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <f>IF(konT!V6&gt;500,konT!V6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <f>IF(konT!W6&gt;500,konT!W6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <f>IF(konT!X6&gt;500,konT!X6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <f>IF(konT!Y6&gt;500,konT!Y6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>IF(konT!Z6&gt;500,konT!Z6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>IF(konT!AA6&gt;500,konT!AA6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>IF(konT!AB6&gt;500,konT!AB6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>IF(konT!AC6&gt;500,konT!AC6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>IF(konT!AD6&gt;500,konT!AD6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>IF(konT!AE6&gt;500,konT!AE6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>IF(konT!AF6&gt;500,konT!AF6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>IF(konT!AG6&gt;500,konT!AG6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <f>IF(konT!AH6&gt;500,konT!AH6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>IF(konT!AI6&gt;500,konT!AI6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <f>konT!AJ6</f>
+        <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:35">
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
@@ -675,15 +799,15 @@
       </c>
       <c r="F4" s="3">
         <f>IF(TRAKan!G5&gt;500,TRAKan!G5,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f>IF(TRAKan!H5&gt;500,TRAKan!H5,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f>IF(TRAKan!I5&gt;500,TRAKan!I5,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <f>IF(TRAKan!J5&gt;500,TRAKan!J5,0)</f>
@@ -713,39 +837,115 @@
         <f>IF(TRAKan!P5&gt;500,TRAKan!P5,0)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <f>TRAKan!Q5</f>
-        <v>500000</v>
+      <c r="P4" s="3">
+        <f>IF(TRAKan!Q5&gt;500,TRAKan!Q5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>IF(TRAKan!R5&gt;500,TRAKan!R5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <f>IF(TRAKan!S5&gt;500,TRAKan!S5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <f>IF(TRAKan!T5&gt;500,TRAKan!T5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f>IF(TRAKan!U5&gt;500,TRAKan!U5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <f>IF(TRAKan!V5&gt;500,TRAKan!V5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <f>IF(TRAKan!W5&gt;500,TRAKan!W5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <f>IF(TRAKan!X5&gt;500,TRAKan!X5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <f>IF(TRAKan!Y5&gt;500,TRAKan!Y5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>IF(TRAKan!Z5&gt;500,TRAKan!Z5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>IF(TRAKan!AA5&gt;500,TRAKan!AA5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>IF(TRAKan!AB5&gt;500,TRAKan!AB5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>IF(TRAKan!AC5&gt;500,TRAKan!AC5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>IF(TRAKan!AD5&gt;500,TRAKan!AD5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>IF(TRAKan!AE5&gt;500,TRAKan!AE5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>IF(TRAKan!AF5&gt;500,TRAKan!AF5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <f>IF(TRAKan!AG5&gt;500,TRAKan!AG5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <f>IF(TRAKan!AH5&gt;500,TRAKan!AH5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>IF(TRAKan!AI5&gt;500,TRAKan!AI5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>TRAKan!AJ5</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:35">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <f>SUM(D3:D4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <f>SUM(E3:E4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(F3:F4)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(G3:G4)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>SUM(H3:H4)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I3:I4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J3:J4)</f>
@@ -753,7 +953,7 @@
       </c>
       <c r="K5" s="4">
         <f>SUM(K3:K4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <f>SUM(L3:L4)</f>
@@ -773,19 +973,95 @@
       </c>
       <c r="P5" s="4">
         <f>SUM(P3:P4)</f>
-        <v>1700000</v>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM(Q3:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM(R3:R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM(S3:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM(T3:T4)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>SUM(U3:U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>SUM(V3:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>SUM(W3:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM(X3:X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM(Y3:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>SUM(Z3:Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM(AA3:AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM(AB3:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM(AC3:AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>SUM(AD3:AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM(AE3:AE4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM(AF3:AF4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM(AG3:AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>SUM(AH3:AH4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM(AI3:AI4)</f>
+        <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:35">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:35">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -819,47 +1095,104 @@
       <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2">
+        <v>11</v>
+      </c>
+      <c r="O8" s="2">
         <v>12</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2">
         <v>13</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2">
         <v>14</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2">
         <v>15</v>
       </c>
+      <c r="S8" s="2">
+        <v>16</v>
+      </c>
+      <c r="T8" s="2">
+        <v>17</v>
+      </c>
+      <c r="U8" s="2">
+        <v>18</v>
+      </c>
+      <c r="V8" s="2">
+        <v>19</v>
+      </c>
+      <c r="W8" s="2">
+        <v>20</v>
+      </c>
+      <c r="X8" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:35">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
         <f>konT!E6</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f>konT!F6</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f>konT!G6</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f>konT!H6</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f>konT!I6</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <f>konT!J6</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>konT!K6</f>
@@ -867,7 +1200,7 @@
       </c>
       <c r="K9" s="3">
         <f>konT!L6</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <f>konT!M6</f>
@@ -885,14 +1218,90 @@
         <f>konT!P6</f>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <f>konT!Q6</f>
-        <v>1200000</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>konT!R6</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <f>konT!S6</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <f>konT!T6</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <f>konT!U6</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <f>konT!V6</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f>konT!W6</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <f>konT!X6</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <f>konT!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>konT!Z6</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>konT!AA6</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>konT!AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>konT!AC6</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>konT!AD6</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>konT!AE6</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>konT!AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>konT!AG6</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <f>konT!AH6</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>konT!AI6</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <f>konT!AJ6</f>
+        <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:35">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -943,39 +1352,115 @@
         <f>TRAKan!P6</f>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <f>TRAKan!Q6</f>
         <v>0</v>
       </c>
+      <c r="Q10" s="3">
+        <f>TRAKan!R6</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <f>TRAKan!S6</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <f>TRAKan!T6</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <f>TRAKan!U6</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <f>TRAKan!V6</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f>TRAKan!W6</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <f>TRAKan!X6</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <f>TRAKan!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>TRAKan!Z6</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>TRAKan!AA6</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>TRAKan!AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>TRAKan!AC6</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>TRAKan!AD6</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>TRAKan!AE6</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>TRAKan!AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>TRAKan!AG6</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <f>TRAKan!AH6</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>TRAKan!AI6</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <f>TRAKan!AJ6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:35">
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <f>SUM(D9:D10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E9:E10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F9:F10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <f>SUM(G9:G10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <f>SUM(H9:H10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f>SUM(I9:I10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(J9:J10)</f>
@@ -983,7 +1468,7 @@
       </c>
       <c r="K11" s="4">
         <f>SUM(K9:K10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(L9:L10)</f>
@@ -1003,19 +1488,95 @@
       </c>
       <c r="P11" s="4">
         <f>SUM(P9:P10)</f>
-        <v>1200000</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM(Q9:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM(R9:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM(S9:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM(T9:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <f>SUM(U9:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f>SUM(V9:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <f>SUM(W9:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM(X9:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM(Y9:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>SUM(Z9:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM(AA9:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM(AB9:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM(AC9:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>SUM(AD9:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM(AE9:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM(AF9:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM(AG9:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <f>SUM(AH9:AH10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM(AI9:AI10)</f>
+        <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:35">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:35">
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1049,22 +1610,79 @@
       <c r="L14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="2">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2">
         <v>12</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2">
         <v>13</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="Q14" s="2">
         <v>14</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="R14" s="2">
         <v>15</v>
       </c>
+      <c r="S14" s="2">
+        <v>16</v>
+      </c>
+      <c r="T14" s="2">
+        <v>17</v>
+      </c>
+      <c r="U14" s="2">
+        <v>18</v>
+      </c>
+      <c r="V14" s="2">
+        <v>19</v>
+      </c>
+      <c r="W14" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:35">
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
@@ -1115,14 +1733,90 @@
         <f>O3-O9</f>
         <v>0</v>
       </c>
-      <c r="P15" s="2">
-        <f>SUM(D15:O15)</f>
+      <c r="P15" s="3">
+        <f>P3-P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>Q3-Q9</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f>R3-R9</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <f>S3-S9</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <f>T3-T9</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <f>U3-U9</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <f>V3-V9</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <f>W3-W9</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <f>X3-X9</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>Y3-Y9</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>Z3-Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>AA3-AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>AB3-AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>AC3-AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>AD3-AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>AE3-AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>AF3-AF9</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>AG3-AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>AH3-AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <f>SUM(D15:AH15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:35">
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
@@ -1135,15 +1829,15 @@
       </c>
       <c r="F16" s="3">
         <f>F4-F10</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <f>G4-G10</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <f>H4-H10</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <f>I4-I10</f>
@@ -1173,14 +1867,90 @@
         <f>O4-O10</f>
         <v>0</v>
       </c>
-      <c r="P16" s="2">
-        <f>SUM(D16:O16)</f>
-        <v>500000</v>
+      <c r="P16" s="3">
+        <f>P4-P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>Q4-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <f>R4-R10</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <f>S4-S10</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <f>T4-T10</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <f>U4-U10</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <f>V4-V10</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <f>W4-W10</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <f>X4-X10</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>Y4-Y10</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>Z4-Z10</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>AA4-AA10</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>AB4-AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <f>AC4-AC10</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>AD4-AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>AE4-AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>AF4-AF10</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>AG4-AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>AH4-AH10</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <f>SUM(D16:AH16)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:35">
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -1193,15 +1963,15 @@
       </c>
       <c r="F17" s="4">
         <f>SUM(F15:F16)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <f>SUM(G15:G16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <f>SUM(H15:H16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f>SUM(I15:I16)</f>
@@ -1233,7 +2003,83 @@
       </c>
       <c r="P17" s="4">
         <f>SUM(P15:P16)</f>
-        <v>500000</v>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM(Q15:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM(R15:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM(S15:S16)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM(T15:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <f>SUM(U15:U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <f>SUM(V15:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <f>SUM(W15:W16)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM(X15:X16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM(Y15:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>SUM(Z15:Z16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUM(AA15:AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUM(AB15:AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM(AC15:AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <f>SUM(AD15:AD16)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUM(AE15:AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUM(AF15:AF16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUM(AG15:AG16)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <f>SUM(AH15:AH16)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUM(AI15:AI16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1265,10 +2111,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1279,23 +2125,23 @@
     <col min="4" max="4" width="13" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customHeight="1" ht="20">
+    <row r="1" spans="1:36" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customHeight="1" ht="24">
+    <row r="2" spans="1:36" customHeight="1" ht="24">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1324,211 +2170,439 @@
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>16</v>
+      </c>
+      <c r="U2" s="2">
+        <v>17</v>
+      </c>
+      <c r="V2" s="2">
+        <v>18</v>
+      </c>
+      <c r="W2" s="2">
+        <v>19</v>
+      </c>
+      <c r="X2" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="2">
         <v>24</v>
       </c>
+      <c r="AC2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" customHeight="1" ht="17">
+    <row r="3" spans="1:36" customHeight="1" ht="17">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>100000</v>
       </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100000</v>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>SUM(E3:P3)</f>
-        <v>500000</v>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f>SUM(E3:AI3)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" customHeight="1" ht="17">
+    <row r="4" spans="1:36" customHeight="1" ht="17">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>100000</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3">
-        <v>100000</v>
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K4" s="3">
         <v>100000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>SUM(E4:AI4)</f>
         <v>100000</v>
       </c>
-      <c r="M4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:36" customHeight="1" ht="17">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>SUM(E4:P4)</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="17">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>100000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100000</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>SUM(E5:P5)</f>
-        <v>400000</v>
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f>SUM(E5:AI5)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:36">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <f>SUM(E3:E5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <f>SUM(F3:F5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(G3:G5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>SUM(H3:H5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <f>SUM(I3:I5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <f>SUM(J3:J5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <f>SUM(K3:K5)</f>
@@ -1536,7 +2610,7 @@
       </c>
       <c r="L6" s="4">
         <f>SUM(L3:L5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(M3:M5)</f>
@@ -1556,7 +2630,83 @@
       </c>
       <c r="Q6" s="4">
         <f>SUM(Q3:Q5)</f>
-        <v>1200000</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM(R3:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM(S3:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM(T3:T5)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>SUM(U3:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>SUM(V3:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>SUM(W3:W5)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM(X3:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM(Y3:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>SUM(Z3:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM(AA3:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM(AB3:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM(AC3:AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>SUM(AD3:AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM(AE3:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM(AF3:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM(AG3:AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>SUM(AH3:AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM(AI3:AI5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM(AJ3:AJ5)</f>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1584,10 +2734,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1598,23 +2748,23 @@
     <col min="4" max="4" width="13" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customHeight="1" ht="20">
+    <row r="1" spans="1:36" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customHeight="1" ht="24">
+    <row r="2" spans="1:36" customHeight="1" ht="24">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1643,130 +2793,301 @@
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>16</v>
+      </c>
+      <c r="U2" s="2">
+        <v>17</v>
+      </c>
+      <c r="V2" s="2">
+        <v>18</v>
+      </c>
+      <c r="W2" s="2">
+        <v>19</v>
+      </c>
+      <c r="X2" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="2">
         <v>24</v>
       </c>
+      <c r="AC2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" customHeight="1" ht="17">
+    <row r="3" spans="1:36" customHeight="1" ht="17">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3">
         <v>100000</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100000</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>SUM(E3:P3)</f>
-        <v>300000</v>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f>SUM(E3:AI3)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" customHeight="1" ht="17">
+    <row r="4" spans="1:36" customHeight="1" ht="17">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>100000</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100000</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>SUM(E4:P4)</f>
-        <v>200000</v>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>SUM(E4:AI4)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:36">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1781,15 +3102,15 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G3:G4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>SUM(H3:H4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I3:I4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J3:J4)</f>
@@ -1821,7 +3142,83 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>500000</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM(R3:R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM(S3:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM(T3:T4)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <f>SUM(U3:U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f>SUM(V3:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <f>SUM(W3:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM(X3:X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM(Y3:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>SUM(Z3:Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM(AA3:AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM(AB3:AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM(AC3:AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>SUM(AD3:AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM(AE3:AE4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM(AF3:AF4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM(AG3:AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>SUM(AH3:AH4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM(AI3:AI4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM(AJ3:AJ4)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
